--- a/Planteamiento/Tablas Transportes.xlsx
+++ b/Planteamiento/Tablas Transportes.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKYNET\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JORGE\Documents\GitHub\Transportes\Planteamiento\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="750" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="111">
   <si>
     <t>Empresa</t>
   </si>
@@ -312,12 +312,57 @@
   </si>
   <si>
     <t>KM_Programacion</t>
+  </si>
+  <si>
+    <t>varchar(150)</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>numeric(18,2)</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">char(4) </t>
+  </si>
+  <si>
+    <t>char(4)</t>
+  </si>
+  <si>
+    <t>varchar(70)</t>
+  </si>
+  <si>
+    <t>varchar(15)</t>
+  </si>
+  <si>
+    <t>varchar(250)</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>char(5)</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>Id_Activo</t>
+  </si>
+  <si>
+    <t>char(8)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,7 +407,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -457,11 +502,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -477,6 +575,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,618 +870,913 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:AA65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="4" style="28" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="20" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="4" style="20" customWidth="1"/>
+    <col min="13" max="13" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.5703125" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" customWidth="1"/>
+    <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17" customWidth="1"/>
+    <col min="18" max="18" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="K1" s="6"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="N1" s="15"/>
+      <c r="P1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="U1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" s="17"/>
+      <c r="M2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L3" s="17"/>
+      <c r="M3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="P4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="R5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="R6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="R7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="R8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="R9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y9" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B10" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="R10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B11" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="18"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="18"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="18"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B14" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="18"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="18"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="B16" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="18"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="18"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="18"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="24"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="E24" s="12"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="H24" s="6"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="K24" s="12"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="N24" s="15"/>
+      <c r="P24" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="H25" s="2"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="K25" s="2"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="N25" s="9"/>
+      <c r="P25" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="E26" s="2"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="H26" s="2"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="K26" s="2"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="N26" s="9"/>
+      <c r="P26" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="E27" s="2"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="H27" s="2"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="K27" s="2"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="N27" s="9"/>
+      <c r="R27" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="E28" s="2"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="H28" s="2"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="K28" s="2"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="13" t="s">
+      <c r="N28" s="9"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D29" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="9"/>
+      <c r="F29" s="18"/>
+      <c r="M29" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="9"/>
+      <c r="F30" s="18"/>
+      <c r="M30" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
+      <c r="N30" s="9"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="9"/>
+      <c r="F31" s="18"/>
+      <c r="M31" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="10" t="s">
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D32" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9"/>
+      <c r="F32" s="18"/>
+      <c r="M32" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="1" t="s">
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="1"/>
+      <c r="F33" s="22"/>
+      <c r="M33" s="10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N33" s="9"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="24"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="E41" s="12"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="H41" s="12"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="12" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K41" s="15"/>
+      <c r="L41" s="23"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="E42" s="2"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="H42" s="2"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K42" s="9"/>
+      <c r="L42" s="18"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="E43" s="2"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="H43" s="2"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K43" s="9"/>
+      <c r="L43" s="18"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="E44" s="2"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="H44" s="2"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K44" s="9"/>
+      <c r="L44" s="18"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="E45" s="2"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="H45" s="2"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="13" t="s">
+      <c r="K45" s="9"/>
+      <c r="L45" s="18"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D46" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="E46" s="9"/>
+      <c r="F46" s="18"/>
+      <c r="J46" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
+      <c r="K46" s="9"/>
+      <c r="L46" s="18"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D47" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="9"/>
+      <c r="F47" s="18"/>
+      <c r="J47" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
+      <c r="K47" s="9"/>
+      <c r="L47" s="18"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="9"/>
+      <c r="F48" s="18"/>
+      <c r="J48" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="10" t="s">
+      <c r="K48" s="9"/>
+      <c r="L48" s="18"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D49" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="E49" s="9"/>
+      <c r="F49" s="18"/>
+      <c r="J49" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="1" t="s">
+      <c r="K49" s="9"/>
+      <c r="L49" s="18"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D50" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1"/>
+      <c r="F50" s="22"/>
+      <c r="J50" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K50" s="1"/>
+      <c r="L50" s="22"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="5"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="5"/>
+      <c r="F60" s="21"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="1"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="1"/>
+      <c r="F61" s="22"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="1"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="1"/>
+      <c r="F62" s="22"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+      <c r="C63" s="18"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
+      <c r="C64" s="18"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Planteamiento/Tablas Transportes.xlsx
+++ b/Planteamiento/Tablas Transportes.xlsx
@@ -1,395 +1,392 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JORGE\Documents\GitHub\Transportes\Planteamiento\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="750" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="120">
   <si>
-    <t xml:space="preserve">Activos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo_Placa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo_Activo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo_Transporte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id_Activo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">char(8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id_Tipo_Placa</t>
+    <t>Activos</t>
+  </si>
+  <si>
+    <t>Tipo_Placa</t>
+  </si>
+  <si>
+    <t>Tipo_Activo</t>
+  </si>
+  <si>
+    <t>Marcas</t>
+  </si>
+  <si>
+    <t>Tipo_Transporte</t>
+  </si>
+  <si>
+    <t>Id_Activo</t>
+  </si>
+  <si>
+    <t>char(8)</t>
+  </si>
+  <si>
+    <t>Id_Tipo_Placa</t>
   </si>
   <si>
     <t xml:space="preserve">char(4) </t>
   </si>
   <si>
-    <t xml:space="preserve">Id_Tipo_Activo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">char(4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id_Marca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id_Tipo_Transporte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre Interno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varchar(150)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre_Tipo_Placa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar(70)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre_Tipo_Activo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre_Marca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre_Tipo_Transporte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costo_Unidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">numeric(18,2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha_Alta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">datetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha_Baja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar(20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarjeta_Circulacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar(15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Placas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar(10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Color</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modelo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripcion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar(250)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poliza_Seguro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id_Empresa_Aseguradora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">char(5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asignado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id_Empleado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id_Empresa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empresa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domicilios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo_Domicilio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id_Domicilio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id_TipoDomicilio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id_Estado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">char(3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id_Pais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre_Empresa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar(50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar(100)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre_TipoDomilio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre_Estado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre_Pais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar(30)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NoInterior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NoExterior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TipoPersona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codigo_Postal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_TipoPersona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id_LigaDomicilio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id_Persona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">char(6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empleado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo_Empleado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Licencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo_Licencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id_Tipo_Empleado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id_Licencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id_Tipo_Licencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre_Tipo_Empleado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar(25)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre_Tipo_Licencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre_Empleado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar(80)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vigencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telefono</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No_Licencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CURP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">char(18)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No_Identificacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empresa_Aseguradora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Broker_Empresa_Aseguradora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agente_Empresa_Aseguradora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id_Broker_Empresa_Aseguradora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id_Agente_Empresa_Aseguradora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre_Empresa_Aseguradora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre_Broker_Empresa_Aseguradora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telefono_Siniestros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proveedores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clientes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id_Proveedor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id_Cliente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre_Proveedor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre_Cliente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFC_Proveedor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RFC_Cliente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mantenimiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo_Mantenimiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id_Mantenimiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">char(10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id_Tipo_Mantenimiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre_Mantenimiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre_Tipo_Mantenimiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha_Programacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KM_Programacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rutas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rutas_Detalle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id_Rutas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre_Ruta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre_Rutas_Detalle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Secuencia</t>
+    <t>Id_Tipo_Activo</t>
+  </si>
+  <si>
+    <t>char(4)</t>
+  </si>
+  <si>
+    <t>Id_Marca</t>
+  </si>
+  <si>
+    <t>Id_Tipo_Transporte</t>
+  </si>
+  <si>
+    <t>Nombre Interno</t>
+  </si>
+  <si>
+    <t>Varchar(150)</t>
+  </si>
+  <si>
+    <t>Nombre_Tipo_Placa</t>
+  </si>
+  <si>
+    <t>varchar(70)</t>
+  </si>
+  <si>
+    <t>Nombre_Tipo_Activo</t>
+  </si>
+  <si>
+    <t>Nombre_Marca</t>
+  </si>
+  <si>
+    <t>Nombre_Tipo_Transporte</t>
+  </si>
+  <si>
+    <t>Costo_Unidad</t>
+  </si>
+  <si>
+    <t>numeric(18,2)</t>
+  </si>
+  <si>
+    <t>Fecha_Alta</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>Fecha_Baja</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>Tarjeta_Circulacion</t>
+  </si>
+  <si>
+    <t>varchar(15)</t>
+  </si>
+  <si>
+    <t>Placas</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>varchar(250)</t>
+  </si>
+  <si>
+    <t>Poliza_Seguro</t>
+  </si>
+  <si>
+    <t>Id_Empresa_Aseguradora</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>char(5)</t>
+  </si>
+  <si>
+    <t>Asignado</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>Id_Empleado</t>
+  </si>
+  <si>
+    <t>Id_Empresa</t>
+  </si>
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>Domicilios</t>
+  </si>
+  <si>
+    <t>Tipo_Domicilio</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Pais</t>
+  </si>
+  <si>
+    <t>Id_Domicilio</t>
+  </si>
+  <si>
+    <t>Id_TipoDomicilio</t>
+  </si>
+  <si>
+    <t>Id_Estado</t>
+  </si>
+  <si>
+    <t>char(3)</t>
+  </si>
+  <si>
+    <t>Id_Pais</t>
+  </si>
+  <si>
+    <t>Nombre_Empresa</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>Calle</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>Nombre_TipoDomilio</t>
+  </si>
+  <si>
+    <t>Nombre_Estado</t>
+  </si>
+  <si>
+    <t>Nombre_Pais</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>NoInterior</t>
+  </si>
+  <si>
+    <t>NoExterior</t>
+  </si>
+  <si>
+    <t>Colonia</t>
+  </si>
+  <si>
+    <t>TipoPersona</t>
+  </si>
+  <si>
+    <t>Codigo_Postal</t>
+  </si>
+  <si>
+    <t>id_TipoPersona</t>
+  </si>
+  <si>
+    <t>Id_LigaDomicilio</t>
+  </si>
+  <si>
+    <t>Id_Persona</t>
+  </si>
+  <si>
+    <t>char(6)</t>
+  </si>
+  <si>
+    <t>Empleado</t>
+  </si>
+  <si>
+    <t>Tipo_Empleado</t>
+  </si>
+  <si>
+    <t>Licencia</t>
+  </si>
+  <si>
+    <t>Tipo_Licencia</t>
+  </si>
+  <si>
+    <t>Id_Tipo_Empleado</t>
+  </si>
+  <si>
+    <t>Id_Licencia</t>
+  </si>
+  <si>
+    <t>Id_Tipo_Licencia</t>
+  </si>
+  <si>
+    <t>Nombre_Tipo_Empleado</t>
+  </si>
+  <si>
+    <t>varchar(25)</t>
+  </si>
+  <si>
+    <t>Nombre_Tipo_Licencia</t>
+  </si>
+  <si>
+    <t>Nombre_Empleado</t>
+  </si>
+  <si>
+    <t>varchar(80)</t>
+  </si>
+  <si>
+    <t>Vigencia</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>No_Licencia</t>
+  </si>
+  <si>
+    <t>RFC</t>
+  </si>
+  <si>
+    <t>CURP</t>
+  </si>
+  <si>
+    <t>char(18)</t>
+  </si>
+  <si>
+    <t>No_Identificacion</t>
+  </si>
+  <si>
+    <t>Empresa_Aseguradora</t>
+  </si>
+  <si>
+    <t>Broker_Empresa_Aseguradora</t>
+  </si>
+  <si>
+    <t>Agente_Empresa_Aseguradora</t>
+  </si>
+  <si>
+    <t>Id_Broker_Empresa_Aseguradora</t>
+  </si>
+  <si>
+    <t>Id_Agente_Empresa_Aseguradora</t>
+  </si>
+  <si>
+    <t>Nombre_Empresa_Aseguradora</t>
+  </si>
+  <si>
+    <t>Nombre_Broker_Empresa_Aseguradora</t>
+  </si>
+  <si>
+    <t>Telefono_Siniestros</t>
+  </si>
+  <si>
+    <t>Proveedores</t>
+  </si>
+  <si>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t>Id_Proveedor</t>
+  </si>
+  <si>
+    <t>Id_Cliente</t>
+  </si>
+  <si>
+    <t>Nombre_Proveedor</t>
+  </si>
+  <si>
+    <t>Nombre_Cliente</t>
+  </si>
+  <si>
+    <t>RFC_Proveedor</t>
+  </si>
+  <si>
+    <t>RFC_Cliente</t>
+  </si>
+  <si>
+    <t>Mantenimiento</t>
+  </si>
+  <si>
+    <t>Tipo_Mantenimiento</t>
+  </si>
+  <si>
+    <t>Id_Mantenimiento</t>
+  </si>
+  <si>
+    <t>char(10)</t>
+  </si>
+  <si>
+    <t>Id_Tipo_Mantenimiento</t>
+  </si>
+  <si>
+    <t>Nombre_Mantenimiento</t>
+  </si>
+  <si>
+    <t>Nombre_Tipo_Mantenimiento</t>
+  </si>
+  <si>
+    <t>Fecha_Programacion</t>
+  </si>
+  <si>
+    <t>KM_Programacion</t>
+  </si>
+  <si>
+    <t>Rutas</t>
+  </si>
+  <si>
+    <t>Rutas_Detalle</t>
+  </si>
+  <si>
+    <t>Id_Rutas</t>
+  </si>
+  <si>
+    <t>Nombre_Ruta</t>
+  </si>
+  <si>
+    <t>Nombre_Rutas_Detalle</t>
+  </si>
+  <si>
+    <t>Secuencia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -398,22 +395,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -449,251 +431,175 @@
     </fill>
   </fills>
   <borders count="11">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -752,57 +658,331 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D79" activeCellId="0" sqref="D79"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="3.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="4.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="36.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="4.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="31.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="3.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="30.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="6.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="21.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="6.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="20.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="6.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="0" width="15.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="5.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="28" style="0" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="23.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="19.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="21.43"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="4" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="31.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="4" style="2" customWidth="1"/>
+    <col min="13" max="13" width="30.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" customWidth="1"/>
+    <col min="16" max="17" width="17" customWidth="1"/>
+    <col min="18" max="18" width="6.7109375" style="1" customWidth="1"/>
+    <col min="19" max="20" width="21.85546875" customWidth="1"/>
+    <col min="21" max="21" width="6.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="20.28515625" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="1" customWidth="1"/>
+    <col min="25" max="26" width="15.140625" customWidth="1"/>
+    <col min="27" max="27" width="5.5703125" style="1" customWidth="1"/>
+    <col min="28" max="29" width="12.85546875" customWidth="1"/>
+    <col min="31" max="31" width="18.28515625" customWidth="1"/>
+    <col min="32" max="32" width="23.28515625" customWidth="1"/>
+    <col min="33" max="33" width="19.42578125" customWidth="1"/>
+    <col min="34" max="34" width="15.5703125" customWidth="1"/>
+    <col min="35" max="35" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -828,7 +1008,7 @@
       </c>
       <c r="N1" s="9"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
@@ -864,7 +1044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
@@ -900,7 +1080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>20</v>
       </c>
@@ -909,7 +1089,7 @@
       </c>
       <c r="C4" s="12"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>22</v>
       </c>
@@ -918,7 +1098,7 @@
       </c>
       <c r="C5" s="12"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>24</v>
       </c>
@@ -927,7 +1107,7 @@
       </c>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>25</v>
       </c>
@@ -936,7 +1116,7 @@
       </c>
       <c r="C7" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>27</v>
       </c>
@@ -945,7 +1125,7 @@
       </c>
       <c r="C8" s="12"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>29</v>
       </c>
@@ -954,7 +1134,7 @@
       </c>
       <c r="C9" s="12"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
@@ -963,7 +1143,7 @@
       </c>
       <c r="C10" s="12"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
@@ -972,7 +1152,7 @@
       </c>
       <c r="C11" s="12"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>31</v>
       </c>
@@ -981,7 +1161,7 @@
       </c>
       <c r="C12" s="12"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>32</v>
       </c>
@@ -990,7 +1170,7 @@
       </c>
       <c r="C13" s="12"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>11</v>
       </c>
@@ -999,7 +1179,7 @@
       </c>
       <c r="C14" s="12"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>33</v>
       </c>
@@ -1008,7 +1188,7 @@
       </c>
       <c r="C15" s="12"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>12</v>
       </c>
@@ -1017,7 +1197,7 @@
       </c>
       <c r="C16" s="12"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>35</v>
       </c>
@@ -1026,7 +1206,7 @@
       </c>
       <c r="C17" s="12"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>36</v>
       </c>
@@ -1035,7 +1215,7 @@
       </c>
       <c r="C18" s="12"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>37</v>
       </c>
@@ -1044,7 +1224,7 @@
       </c>
       <c r="C19" s="12"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>39</v>
       </c>
@@ -1052,7 +1232,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>41</v>
       </c>
@@ -1060,7 +1240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>42</v>
       </c>
@@ -1068,10 +1248,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AA24" s="5"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>43</v>
       </c>
@@ -1097,7 +1277,7 @@
       </c>
       <c r="N25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>42</v>
       </c>
@@ -1133,7 +1313,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>53</v>
       </c>
@@ -1169,7 +1349,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -1189,7 +1369,7 @@
       </c>
       <c r="L28" s="12"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D29" s="13" t="s">
         <v>62</v>
       </c>
@@ -1200,7 +1380,7 @@
       <c r="I29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D30" s="13" t="s">
         <v>63</v>
       </c>
@@ -1211,7 +1391,7 @@
       <c r="I30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>64</v>
       </c>
@@ -1226,7 +1406,7 @@
       <c r="I31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>66</v>
       </c>
@@ -1243,7 +1423,7 @@
       <c r="I32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>64</v>
       </c>
@@ -1260,7 +1440,7 @@
       <c r="I33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="D34" s="11" t="s">
@@ -1273,7 +1453,7 @@
       <c r="I34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D35" s="11" t="s">
         <v>68</v>
       </c>
@@ -1284,7 +1464,7 @@
       <c r="I35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D36" s="11" t="s">
         <v>66</v>
       </c>
@@ -1295,7 +1475,7 @@
       <c r="I36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>70</v>
       </c>
@@ -1313,7 +1493,7 @@
       </c>
       <c r="K39" s="26"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>41</v>
       </c>
@@ -1339,7 +1519,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>74</v>
       </c>
@@ -1366,7 +1546,7 @@
       </c>
       <c r="L41" s="5"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>80</v>
       </c>
@@ -1387,7 +1567,7 @@
       </c>
       <c r="L42" s="12"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>83</v>
       </c>
@@ -1402,7 +1582,7 @@
       </c>
       <c r="L43" s="12"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>85</v>
       </c>
@@ -1413,7 +1593,7 @@
       <c r="H44" s="1"/>
       <c r="L44" s="12"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>86</v>
       </c>
@@ -1424,7 +1604,7 @@
       <c r="H45" s="1"/>
       <c r="L45" s="12"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>88</v>
       </c>
@@ -1435,7 +1615,7 @@
       <c r="H46" s="1"/>
       <c r="L46" s="12"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>75</v>
       </c>
@@ -1450,18 +1630,18 @@
       <c r="X47" s="5"/>
       <c r="Y47" s="10"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="G48" s="12"/>
       <c r="H48" s="1"/>
       <c r="U48" s="12"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U49" s="12"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U50" s="12"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>89</v>
       </c>
@@ -1477,7 +1657,7 @@
       </c>
       <c r="H51" s="4"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>36</v>
       </c>
@@ -1503,7 +1683,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>94</v>
       </c>
@@ -1530,7 +1710,7 @@
       <c r="N53" s="5"/>
       <c r="O53" s="10"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>83</v>
       </c>
@@ -1556,7 +1736,7 @@
       <c r="M54" s="12"/>
       <c r="N54" s="12"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>96</v>
       </c>
@@ -1582,7 +1762,7 @@
       <c r="M55" s="12"/>
       <c r="N55" s="12"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
@@ -1591,7 +1771,7 @@
       <c r="M56" s="12"/>
       <c r="N56" s="12"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
@@ -1600,7 +1780,7 @@
       <c r="M57" s="12"/>
       <c r="N57" s="12"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
@@ -1609,7 +1789,7 @@
       <c r="M58" s="12"/>
       <c r="N58" s="12"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>97</v>
       </c>
@@ -1625,7 +1805,7 @@
       <c r="M59" s="12"/>
       <c r="N59" s="12"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>99</v>
       </c>
@@ -1644,7 +1824,7 @@
       <c r="M60" s="12"/>
       <c r="N60" s="12"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>101</v>
       </c>
@@ -1662,7 +1842,7 @@
       <c r="M61" s="12"/>
       <c r="N61" s="12"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>103</v>
       </c>
@@ -1680,7 +1860,7 @@
       <c r="M62" s="12"/>
       <c r="N62" s="12"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>83</v>
       </c>
@@ -1699,25 +1879,25 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F64" s="12"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F65" s="12"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F66" s="12"/>
       <c r="I66" s="12"/>
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="30" t="s">
         <v>105</v>
       </c>
@@ -1732,7 +1912,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="12"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="28" t="s">
         <v>107</v>
       </c>
@@ -1751,7 +1931,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="28" t="s">
         <v>110</v>
       </c>
@@ -1770,7 +1950,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="28" t="s">
         <v>109</v>
       </c>
@@ -1783,7 +1963,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="12"/>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="28" t="s">
         <v>112</v>
       </c>
@@ -1796,7 +1976,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="12"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="28" t="s">
         <v>113</v>
       </c>
@@ -1808,19 +1988,19 @@
       <c r="J72" s="12"/>
       <c r="K72" s="12"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J73" s="12"/>
       <c r="K73" s="12"/>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J74" s="12"/>
       <c r="K74" s="12"/>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="30" t="s">
         <v>114</v>
       </c>
@@ -1833,7 +2013,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="31" t="s">
         <v>116</v>
       </c>
@@ -1848,7 +2028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="31" t="s">
         <v>117</v>
       </c>
@@ -1863,7 +2043,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D79" s="15" t="s">
         <v>119</v>
       </c>
@@ -1871,22 +2051,17 @@
         <v>51</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F84" s="32"/>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F85" s="29"/>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F86" s="29"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Planteamiento/Tablas Transportes.xlsx
+++ b/Planteamiento/Tablas Transportes.xlsx
@@ -9,18 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="750" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="1440" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="120">
   <si>
     <t>Activos</t>
   </si>
@@ -386,7 +385,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -405,6 +404,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -560,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -594,6 +599,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -945,7 +951,7 @@
   <dimension ref="A1:AA86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D7" sqref="D7:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1538,7 +1544,7 @@
       <c r="H41" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="J41" s="11" t="s">
+      <c r="J41" s="22" t="s">
         <v>79</v>
       </c>
       <c r="K41" s="15" t="s">
@@ -1559,13 +1565,9 @@
       <c r="H42" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J42" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K42" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L42" s="12"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
@@ -2062,6 +2064,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Planteamiento/Tablas Transportes.xlsx
+++ b/Planteamiento/Tablas Transportes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="2130" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="121">
   <si>
     <t>Activos</t>
   </si>
@@ -379,6 +379,9 @@
   </si>
   <si>
     <t>Secuencia</t>
+  </si>
+  <si>
+    <t>Nombre_Agente_Empresa_Aseguradora</t>
   </si>
 </sst>
 </file>
@@ -950,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:G12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,7 +1298,7 @@
         <v>48</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="F26" s="12"/>
       <c r="G26" s="21" t="s">
@@ -1701,7 +1704,7 @@
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="13" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="H53" s="18" t="s">
         <v>81</v>

--- a/Planteamiento/Tablas Transportes.xlsx
+++ b/Planteamiento/Tablas Transportes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="2820" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -954,7 +954,7 @@
   <dimension ref="A1:AA86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,7 +1443,7 @@
         <v>49</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="F33" s="12"/>
       <c r="I33" s="1"/>

--- a/Planteamiento/Tablas Transportes.xlsx
+++ b/Planteamiento/Tablas Transportes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="125">
   <si>
     <t>Activos</t>
   </si>
@@ -382,13 +382,25 @@
   </si>
   <si>
     <t>Nombre_Agente_Empresa_Aseguradora</t>
+  </si>
+  <si>
+    <t>Id_Factura</t>
+  </si>
+  <si>
+    <t>Contacto_Emergencia</t>
+  </si>
+  <si>
+    <t>Id_Contacto</t>
+  </si>
+  <si>
+    <t>Nombre_Contacto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -417,8 +429,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,8 +456,20 @@
         <bgColor rgb="FF0066CC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -564,11 +595,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -603,6 +645,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -953,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,6 +1302,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="24" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="AA24" s="5"/>
     </row>
@@ -1636,6 +1689,12 @@
       <c r="Y47" s="10"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A48" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="G48" s="12"/>
       <c r="H48" s="1"/>
       <c r="U48" s="12"/>
@@ -2056,13 +2115,45 @@
         <v>51</v>
       </c>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="B82" s="35"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B83" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="B84" s="36" t="s">
+        <v>81</v>
+      </c>
       <c r="F84" s="32"/>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="36" t="s">
+        <v>28</v>
+      </c>
       <c r="F85" s="29"/>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B86" s="36" t="s">
+        <v>69</v>
+      </c>
       <c r="F86" s="29"/>
     </row>
   </sheetData>

--- a/Planteamiento/Tablas Transportes.xlsx
+++ b/Planteamiento/Tablas Transportes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="126">
   <si>
     <t>Activos</t>
   </si>
@@ -394,6 +394,9 @@
   </si>
   <si>
     <t>Nombre_Contacto</t>
+  </si>
+  <si>
+    <t>varchar(10</t>
   </si>
 </sst>
 </file>
@@ -996,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA86"/>
+  <dimension ref="A1:AA93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2156,6 +2159,62 @@
       </c>
       <c r="F86" s="29"/>
     </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B87" s="36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B88" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B89" s="36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B90" s="36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B91" s="36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B92" s="36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B93" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Planteamiento/Tablas Transportes.xlsx
+++ b/Planteamiento/Tablas Transportes.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="128">
   <si>
     <t>Activos</t>
   </si>
@@ -397,6 +397,12 @@
   </si>
   <si>
     <t>varchar(10</t>
+  </si>
+  <si>
+    <t>Dias_Credito</t>
+  </si>
+  <si>
+    <t>numeric(18,0)</t>
   </si>
 </sst>
 </file>
@@ -1001,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1947,6 +1953,18 @@
       <c r="N63" s="1"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E64" s="31" t="s">
+        <v>127</v>
+      </c>
       <c r="F64" s="12"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>

--- a/Planteamiento/Tablas Transportes.xlsx
+++ b/Planteamiento/Tablas Transportes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="130">
   <si>
     <t>Activos</t>
   </si>
@@ -403,13 +403,19 @@
   </si>
   <si>
     <t>numeric(18,0)</t>
+  </si>
+  <si>
+    <t>IAVE</t>
+  </si>
+  <si>
+    <t>Folio_Tarjeta_Circulacion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -445,8 +451,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,6 +489,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor rgb="FF0066CC"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -619,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -657,6 +675,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1005,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA93"/>
+  <dimension ref="A1:AA95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,371 +1333,363 @@
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>54</v>
+      </c>
       <c r="AA24" s="5"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6" t="s">
+      <c r="B27" s="19"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="20" t="s">
+      <c r="E27" s="20"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="6" t="s">
+      <c r="H27" s="20"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K25" s="20"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="6" t="s">
+      <c r="K27" s="20"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="N25" s="9"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="N27" s="9"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="K26" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="L26" s="12"/>
-      <c r="M26" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="N26" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="L27" s="12"/>
-      <c r="M27" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="N27" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
+      <c r="B28" s="18" t="s">
+        <v>10</v>
+      </c>
       <c r="C28" s="12"/>
       <c r="D28" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="L28" s="12"/>
+      <c r="M28" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="N28" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" s="12"/>
+      <c r="M29" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="N29" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E30" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L28" s="12"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D29" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="I29" s="1"/>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="D30" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="F30" s="12"/>
       <c r="I30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="J30" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" s="12"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="24"/>
       <c r="D31" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F31" s="12"/>
       <c r="I31" s="1"/>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>10</v>
-      </c>
       <c r="D32" s="13" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F32" s="12"/>
       <c r="I32" s="1"/>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>49</v>
+      <c r="B33" s="24"/>
+      <c r="D33" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F33" s="12"/>
       <c r="I33" s="1"/>
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="D34" s="11" t="s">
-        <v>67</v>
+      <c r="A34" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="F34" s="12"/>
       <c r="I34" s="1"/>
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>54</v>
+      </c>
       <c r="D35" s="11" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="F35" s="12"/>
       <c r="I35" s="1"/>
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
       <c r="D36" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="1"/>
+      <c r="F36" s="12"/>
       <c r="I36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D37" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D38" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="L38" s="1"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="D39" s="7" t="s">
+      <c r="B41" s="26"/>
+      <c r="D41" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E39" s="26"/>
-      <c r="G39" s="7" t="s">
+      <c r="E41" s="26"/>
+      <c r="G41" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H39" s="27"/>
-      <c r="J39" s="7" t="s">
+      <c r="H41" s="27"/>
+      <c r="J41" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K39" s="26"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E40" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="K40" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="J41" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="K41" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="L41" s="5"/>
+      <c r="K41" s="26"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>81</v>
+        <v>69</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>51</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
+        <v>69</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>28</v>
+        <v>51</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>78</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L43" s="12"/>
+        <v>51</v>
+      </c>
+      <c r="J43" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="K43" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L43" s="5"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" s="12"/>
-      <c r="H44" s="1"/>
-      <c r="L44" s="12"/>
+        <v>81</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="G45" s="12"/>
-      <c r="H45" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="L45" s="12"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G46" s="12"/>
       <c r="H46" s="1"/>
@@ -1684,13 +1697,14 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="G47" s="12"/>
       <c r="H47" s="1"/>
+      <c r="L47" s="12"/>
       <c r="U47" s="5"/>
       <c r="V47" s="10"/>
       <c r="W47" s="10"/>
@@ -1698,156 +1712,155 @@
       <c r="Y47" s="10"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A48" s="34" t="s">
-        <v>42</v>
+      <c r="A48" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G48" s="12"/>
       <c r="H48" s="1"/>
+      <c r="L48" s="12"/>
       <c r="U48" s="12"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49" s="12"/>
+      <c r="H49" s="1"/>
       <c r="U49" s="12"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="12"/>
+      <c r="H50" s="1"/>
       <c r="U50" s="12"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6" t="s">
+      <c r="B53" s="4"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E51" s="19"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="6" t="s">
+      <c r="E53" s="19"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H51" s="4"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="12"/>
-      <c r="G52" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="H52" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F53" s="12"/>
-      <c r="G53" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="H53" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="I53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
+      <c r="H53" s="4"/>
       <c r="O53" s="10"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="13" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="F54" s="12"/>
       <c r="G54" s="13" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
+        <v>10</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="13" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="13" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
+        <v>81</v>
+      </c>
+      <c r="I55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
+      <c r="A56" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>28</v>
+      </c>
       <c r="F56" s="12"/>
+      <c r="G56" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H56" s="18" t="s">
+        <v>28</v>
+      </c>
       <c r="I56" s="12"/>
       <c r="L56" s="12"/>
       <c r="M56" s="12"/>
       <c r="N56" s="12"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
+      <c r="A57" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>10</v>
+      </c>
       <c r="F57" s="12"/>
+      <c r="G57" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>10</v>
+      </c>
       <c r="I57" s="12"/>
       <c r="L57" s="12"/>
       <c r="M57" s="12"/>
@@ -1857,379 +1870,397 @@
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
-      <c r="I58" s="1"/>
-      <c r="L58" s="1"/>
+      <c r="I58" s="12"/>
+      <c r="L58" s="12"/>
       <c r="M58" s="12"/>
       <c r="N58" s="12"/>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E59" s="4"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
       <c r="F59" s="12"/>
-      <c r="I59" s="1"/>
-      <c r="L59" s="1"/>
+      <c r="I59" s="12"/>
+      <c r="L59" s="12"/>
       <c r="M59" s="12"/>
       <c r="N59" s="12"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="E60" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F60" s="29"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="I60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="12"/>
       <c r="N60" s="12"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="E61" s="18" t="s">
-        <v>81</v>
-      </c>
+      <c r="A61" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="12"/>
+      <c r="I61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="12"/>
       <c r="N61" s="12"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C62" s="12"/>
       <c r="D62" s="13" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>28</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F62" s="29"/>
       <c r="L62" s="1"/>
       <c r="M62" s="12"/>
       <c r="N62" s="12"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="L63" s="1"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E64" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L64" s="1"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E63" s="18" t="s">
+      <c r="B65" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F63" s="5"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A64" s="34" t="s">
+      <c r="C65" s="12"/>
+      <c r="D65" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" s="5"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="B66" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="D64" s="25" t="s">
+      <c r="D66" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="E64" s="31" t="s">
+      <c r="E66" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="F64" s="12"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-      <c r="K64" s="1"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F65" s="12"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="B67" s="30"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="E67" s="30"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B68" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C68" s="12"/>
-      <c r="D68" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="E68" s="28" t="s">
-        <v>51</v>
-      </c>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F68" s="12"/>
       <c r="I68" s="12"/>
       <c r="J68" s="12"/>
       <c r="K68" s="12"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="B69" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="E69" s="28" t="s">
-        <v>54</v>
-      </c>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B69" s="30"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69" s="30"/>
       <c r="F69" s="12"/>
       <c r="I69" s="12"/>
       <c r="J69" s="12"/>
       <c r="K69" s="12"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="12"/>
+      <c r="D70" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B70" s="28" t="s">
+      <c r="E70" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C70" s="12"/>
       <c r="F70" s="12"/>
-      <c r="I70" s="1"/>
+      <c r="I70" s="12"/>
       <c r="J70" s="12"/>
       <c r="K70" s="12"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C71" s="12"/>
+      <c r="D71" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E71" s="28" t="s">
+        <v>54</v>
+      </c>
       <c r="F71" s="12"/>
-      <c r="I71" s="1"/>
+      <c r="I71" s="12"/>
       <c r="J71" s="12"/>
       <c r="K71" s="12"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="28" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C72" s="12"/>
-      <c r="F72" s="29"/>
+      <c r="F72" s="12"/>
+      <c r="I72" s="1"/>
       <c r="J72" s="12"/>
       <c r="K72" s="12"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="I73" s="1"/>
       <c r="J73" s="12"/>
       <c r="K73" s="12"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="F74" s="29"/>
       <c r="J74" s="12"/>
       <c r="K74" s="12"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="30" t="s">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="B76" s="30"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="30" t="s">
+      <c r="B78" s="30"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="E76" s="30"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="31" t="s">
+      <c r="E78" s="30"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="B77" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="15" t="s">
+      <c r="B79" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="12"/>
+      <c r="D79" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="E77" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="31" t="s">
+      <c r="E79" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="31" t="s">
+      <c r="B80" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="15" t="s">
+      <c r="C80" s="12"/>
+      <c r="D80" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E78" s="15" t="s">
+      <c r="E80" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D79" s="15" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="E79" s="15" t="s">
+      <c r="E81" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="35" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="B82" s="35"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="B83" s="36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="B84" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="F84" s="32"/>
+      <c r="B84" s="35"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="36" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="B85" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="F85" s="29"/>
+        <v>69</v>
+      </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="36" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="B86" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="F86" s="29"/>
+        <v>81</v>
+      </c>
+      <c r="F86" s="32"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="36" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="B87" s="36" t="s">
-        <v>56</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F87" s="29"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="36" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="B88" s="36" t="s">
-        <v>30</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F88" s="29"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="36" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B89" s="36" t="s">
-        <v>125</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B90" s="36" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="36" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B92" s="36" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B93" s="36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B94" s="36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B93" s="36" t="s">
+      <c r="B95" s="36" t="s">
         <v>10</v>
       </c>
     </row>
